--- a/proof that we had a correct network output once ;).xlsx
+++ b/proof that we had a correct network output once ;).xlsx
@@ -13,20 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Netwerk #1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Netwerk #2" sheetId="2" r:id="rId3"/>
-    <sheet name="Netwerk #3" sheetId="3" r:id="rId4"/>
+    <sheet name="Netwerk #2" sheetId="2" r:id="rId2"/>
+    <sheet name="Netwerk #3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Netwerk #1'!$A$1:$B$261</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$4:$A$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Netwerk #1'!$A$1:$H$476</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Netwerk #1</t>
   </si>
@@ -328,14 +326,14 @@
     <t>69 blue</t>
   </si>
   <si>
-    <t>h</t>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +347,16 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +387,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -402,43 +414,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -738,2729 +739,2393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="E1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>7</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="7">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>86</v>
+      </c>
+      <c r="B9" s="9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>72</v>
+      </c>
+      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>99</v>
+      </c>
+      <c r="B23" s="9">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>89</v>
+      </c>
+      <c r="B25" s="11">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>93</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>86</v>
+      </c>
+      <c r="B29" s="7">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>22</v>
+      </c>
+      <c r="B31" s="11">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>81</v>
+      </c>
+      <c r="B32" s="9">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>55</v>
+      </c>
+      <c r="B33" s="9">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>81</v>
+      </c>
+      <c r="B34" s="7">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>26</v>
+      </c>
+      <c r="B37" s="9">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>89</v>
+      </c>
+      <c r="B39" s="11">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>86</v>
+      </c>
+      <c r="B40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>55</v>
+      </c>
+      <c r="B41" s="9">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>45</v>
+      </c>
+      <c r="B42" s="9">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>5</v>
+      </c>
+      <c r="B45" s="9">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>16</v>
+      </c>
+      <c r="B46" s="7">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>51</v>
+      </c>
+      <c r="B47" s="11">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>30</v>
+      </c>
+      <c r="B48" s="9">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>75</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B50" s="9">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>51</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>45</v>
+      </c>
+      <c r="B52" s="9">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>7</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>4</v>
+      </c>
+      <c r="B54" s="9">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>36</v>
+      </c>
+      <c r="B55" s="9">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>48</v>
+      </c>
+      <c r="B56" s="9">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>86</v>
+      </c>
+      <c r="B57" s="9">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>31</v>
+      </c>
+      <c r="B59" s="9">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>16</v>
+      </c>
+      <c r="B60" s="9">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>71</v>
+      </c>
+      <c r="B61" s="9">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>68</v>
+      </c>
+      <c r="B62" s="7">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>85</v>
+      </c>
+      <c r="B63" s="9">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>45</v>
+      </c>
+      <c r="B64" s="9">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>55</v>
+      </c>
+      <c r="B65" s="7">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>51</v>
+      </c>
+      <c r="B66" s="9">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>89</v>
+      </c>
+      <c r="B67" s="7">
+        <v>40</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>4</v>
+      </c>
+      <c r="B70" s="7">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>95</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7">
+        <v>67</v>
+      </c>
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>31</v>
+      </c>
+      <c r="B74" s="7">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="B75" s="7">
+        <v>56</v>
+      </c>
+      <c r="E75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>42</v>
+      </c>
+      <c r="B76" s="9">
+        <v>94</v>
+      </c>
+      <c r="E76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>68</v>
+      </c>
+      <c r="B77" s="9">
+        <v>57</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>26</v>
+      </c>
+      <c r="B78" s="11">
+        <v>62</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>16</v>
+      </c>
+      <c r="B79" s="7">
+        <v>50</v>
+      </c>
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>51</v>
+      </c>
+      <c r="B80" s="7">
+        <v>56</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>71</v>
+      </c>
+      <c r="B81" s="7">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>1</v>
+      </c>
+      <c r="B82" s="3">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>36</v>
+      </c>
+      <c r="B83" s="7">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>51</v>
+      </c>
+      <c r="B84" s="7">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>2</v>
+      </c>
+      <c r="B85" s="9">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>42</v>
+      </c>
+      <c r="B86" s="9">
+        <v>34</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
         <v>25</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B87" s="7">
+        <v>59</v>
+      </c>
+      <c r="E87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>93</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>17</v>
+      </c>
+      <c r="B89" s="9">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>53</v>
+      </c>
+      <c r="B90" s="7">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>30</v>
+      </c>
+      <c r="B91" s="9">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>57</v>
+      </c>
+      <c r="B92" s="7">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>78</v>
+      </c>
+      <c r="B93" s="7">
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>14</v>
+      </c>
+      <c r="B94" s="5">
+        <v>99</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>32</v>
+      </c>
+      <c r="B95" s="7">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>78</v>
+      </c>
+      <c r="B96" s="5">
+        <v>99</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>29</v>
+      </c>
+      <c r="B97" s="11">
+        <v>62</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>47</v>
+      </c>
+      <c r="B98" s="5">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>35</v>
+      </c>
+      <c r="B99" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>20</v>
+      </c>
+      <c r="B100" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>29</v>
+      </c>
+      <c r="B101" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>84</v>
+      </c>
+      <c r="B102" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>94</v>
+      </c>
+      <c r="B103" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>32</v>
+      </c>
+      <c r="B104" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>92</v>
+      </c>
+      <c r="B105" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>21</v>
+      </c>
+      <c r="B106" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>92</v>
+      </c>
+      <c r="B107" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>23</v>
+      </c>
+      <c r="B108" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>34</v>
+      </c>
+      <c r="B109" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>20</v>
+      </c>
+      <c r="B110" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>20</v>
+      </c>
+      <c r="B111" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>84</v>
+      </c>
+      <c r="B112" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>15</v>
+      </c>
+      <c r="B113" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>84</v>
+      </c>
+      <c r="B114" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>23</v>
+      </c>
+      <c r="B115" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>58</v>
+      </c>
+      <c r="B116" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>84</v>
+      </c>
+      <c r="B117" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>47</v>
+      </c>
+      <c r="B118" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>20</v>
+      </c>
+      <c r="B119" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>94</v>
+      </c>
+      <c r="B120" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>64</v>
+      </c>
+      <c r="B121" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>20</v>
+      </c>
+      <c r="B122" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>34</v>
+      </c>
+      <c r="B123" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>61</v>
+      </c>
+      <c r="B124" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>21</v>
+      </c>
+      <c r="B125" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>35</v>
+      </c>
+      <c r="B126" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>15</v>
+      </c>
+      <c r="B127" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>32</v>
+      </c>
+      <c r="B128" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>32</v>
+      </c>
+      <c r="B129" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>77</v>
+      </c>
+      <c r="B130" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>61</v>
+      </c>
+      <c r="B131" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>77</v>
+      </c>
+      <c r="B132" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>79</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>79</v>
+      </c>
+      <c r="B134" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>69</v>
+      </c>
+      <c r="B135" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>14</v>
+      </c>
+      <c r="B136" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>61</v>
+      </c>
+      <c r="B137" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>92</v>
+      </c>
+      <c r="B138" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>94</v>
+      </c>
+      <c r="B139" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>23</v>
+      </c>
+      <c r="B140" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>29</v>
+      </c>
+      <c r="B141" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>61</v>
+      </c>
+      <c r="B142" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="10">
+        <v>78</v>
+      </c>
+      <c r="B143" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>94</v>
+      </c>
+      <c r="B144" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>79</v>
+      </c>
+      <c r="B145" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>94</v>
+      </c>
+      <c r="B146" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>61</v>
+      </c>
+      <c r="B147" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>23</v>
+      </c>
+      <c r="B148" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>79</v>
+      </c>
+      <c r="B149" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>92</v>
+      </c>
+      <c r="B150" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>60</v>
+      </c>
+      <c r="B151" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>63</v>
+      </c>
+      <c r="B152" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>43</v>
+      </c>
+      <c r="B153" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>18</v>
+      </c>
+      <c r="B154" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="B155" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <v>73</v>
+      </c>
+      <c r="B156" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
+        <v>59</v>
+      </c>
+      <c r="B157" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>82</v>
+      </c>
+      <c r="B158" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>54</v>
+      </c>
+      <c r="B159" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8">
+        <v>50</v>
+      </c>
+      <c r="B160" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>73</v>
+      </c>
+      <c r="B161" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
+        <v>83</v>
+      </c>
+      <c r="B162" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
+        <v>59</v>
+      </c>
+      <c r="B163" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8">
+        <v>80</v>
+      </c>
+      <c r="B164" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>3</v>
+      </c>
+      <c r="B165" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
+        <v>83</v>
+      </c>
+      <c r="B166" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>83</v>
+      </c>
+      <c r="B167" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>63</v>
+      </c>
+      <c r="B168" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>54</v>
+      </c>
+      <c r="B169" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
+        <v>9</v>
+      </c>
+      <c r="B170" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>28</v>
+      </c>
+      <c r="B171" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>24</v>
+      </c>
+      <c r="B172" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>62</v>
+      </c>
+      <c r="B173" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>3</v>
+      </c>
+      <c r="B174" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>54</v>
+      </c>
+      <c r="B175" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B176" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8">
+        <v>82</v>
+      </c>
+      <c r="B177" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
+        <v>13</v>
+      </c>
+      <c r="B178" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>56</v>
+      </c>
+      <c r="B179" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>0</v>
+      </c>
+      <c r="B180" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>56</v>
+      </c>
+      <c r="B181" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>73</v>
+      </c>
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8">
+        <v>66</v>
+      </c>
+      <c r="B183" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>87</v>
+      </c>
+      <c r="B184" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>91</v>
+      </c>
+      <c r="B185" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>65</v>
+      </c>
+      <c r="B186" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8">
+        <v>82</v>
+      </c>
+      <c r="B187" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>41</v>
+      </c>
+      <c r="B188" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>10</v>
+      </c>
+      <c r="B189" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8">
+        <v>43</v>
+      </c>
+      <c r="B190" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8">
+        <v>66</v>
+      </c>
+      <c r="B191" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>41</v>
+      </c>
+      <c r="B192" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="8">
+        <v>67</v>
+      </c>
+      <c r="B193" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="8">
+        <v>38</v>
+      </c>
+      <c r="B194" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>65</v>
+      </c>
+      <c r="B195" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>90</v>
+      </c>
+      <c r="B196" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>97</v>
+      </c>
+      <c r="B197" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8">
+        <v>46</v>
+      </c>
+      <c r="B198" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>3</v>
+      </c>
+      <c r="B199" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="8">
+        <v>8</v>
+      </c>
+      <c r="B200" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="8">
+        <v>9</v>
+      </c>
+      <c r="B201" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="8">
+        <v>80</v>
+      </c>
+      <c r="B202" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>24</v>
+      </c>
+      <c r="B203" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>54</v>
+      </c>
+      <c r="B204" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>0</v>
+      </c>
+      <c r="B205" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>39</v>
+      </c>
+      <c r="B206" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="8">
+        <v>66</v>
+      </c>
+      <c r="B207" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>91</v>
+      </c>
+      <c r="B208" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>33</v>
+      </c>
+      <c r="B209" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8">
+        <v>38</v>
+      </c>
+      <c r="B210" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>41</v>
+      </c>
+      <c r="B211" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>3</v>
+      </c>
+      <c r="B212" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>18</v>
+      </c>
+      <c r="B213" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>3</v>
+      </c>
+      <c r="B214" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="12">
+        <v>73</v>
+      </c>
+      <c r="B215" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="8">
+        <v>37</v>
+      </c>
+      <c r="B216" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="8">
+        <v>40</v>
+      </c>
+      <c r="B217" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
+        <v>65</v>
+      </c>
+      <c r="B218" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>3</v>
+      </c>
+      <c r="B219" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>73</v>
+      </c>
+      <c r="B220" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="8">
+        <v>9</v>
+      </c>
+      <c r="B221" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>0</v>
+      </c>
+      <c r="B222" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>39</v>
+      </c>
+      <c r="B223" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>24</v>
+      </c>
+      <c r="B224" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>3</v>
+      </c>
+      <c r="B225" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="8">
+        <v>98</v>
+      </c>
+      <c r="B226" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="12">
+        <v>96</v>
+      </c>
+      <c r="B227" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>54</v>
+      </c>
+      <c r="B228" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="8">
+        <v>37</v>
+      </c>
+      <c r="B229" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>18</v>
+      </c>
+      <c r="B230" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="8">
+        <v>56</v>
+      </c>
+      <c r="B231" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="8">
+        <v>66</v>
+      </c>
+      <c r="B232" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
+        <v>39</v>
+      </c>
+      <c r="B233" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="8">
+        <v>27</v>
+      </c>
+      <c r="B234" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="12">
+        <v>96</v>
+      </c>
+      <c r="B235" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="8">
+        <v>50</v>
+      </c>
+      <c r="B236" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="8">
+        <v>28</v>
+      </c>
+      <c r="B237" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="8">
+        <v>11</v>
+      </c>
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="8">
+        <v>98</v>
+      </c>
+      <c r="B239" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="8">
+        <v>66</v>
+      </c>
+      <c r="B240" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>18</v>
+      </c>
+      <c r="B241" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>24</v>
+      </c>
+      <c r="B242" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="8">
+        <v>13</v>
+      </c>
+      <c r="B243" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="12">
+        <v>87</v>
+      </c>
+      <c r="B244" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="8">
+        <v>46</v>
+      </c>
+      <c r="B245" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="8">
+        <v>9</v>
+      </c>
+      <c r="B246" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="12">
+        <v>10</v>
+      </c>
+      <c r="B247" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="8">
+        <v>43</v>
+      </c>
+      <c r="B248" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="8">
+        <v>27</v>
+      </c>
+      <c r="B249" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>0</v>
+      </c>
+      <c r="B250" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>0</v>
+      </c>
+      <c r="B251" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>24</v>
+      </c>
+      <c r="B252" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>18</v>
+      </c>
+      <c r="B253" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="8">
+        <v>43</v>
+      </c>
+      <c r="B254" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="8">
+        <v>67</v>
+      </c>
+      <c r="B255" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="12">
+        <v>41</v>
+      </c>
+      <c r="B256" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="8">
+        <v>38</v>
+      </c>
+      <c r="B257" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="8">
+        <v>38</v>
+      </c>
+      <c r="B258" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="12">
+        <v>62</v>
+      </c>
+      <c r="B259" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="8">
+        <v>46</v>
+      </c>
+      <c r="B260" s="5">
         <v>68</v>
       </c>
-      <c r="B5" s="13">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>22</v>
-      </c>
-      <c r="B6" s="16">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>86</v>
-      </c>
-      <c r="B8" s="13">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>86</v>
-      </c>
-      <c r="B9" s="16">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>7</v>
-      </c>
-      <c r="B12" s="16">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>16</v>
-      </c>
-      <c r="B14" s="16">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="12">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>72</v>
-      </c>
-      <c r="B17" s="16">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>48</v>
-      </c>
-      <c r="B18" s="13">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>85</v>
-      </c>
-      <c r="B19" s="13">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="12">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>72</v>
-      </c>
-      <c r="B21">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>99</v>
-      </c>
-      <c r="B23" s="16">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>89</v>
-      </c>
-      <c r="B25">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="15">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>1</v>
-      </c>
-      <c r="B28" s="16">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>86</v>
-      </c>
-      <c r="B29" s="13">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>4</v>
-      </c>
-      <c r="B30" s="16">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>81</v>
-      </c>
-      <c r="B32" s="16">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>55</v>
-      </c>
-      <c r="B33" s="16">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>81</v>
-      </c>
-      <c r="B34" s="13">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="15">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>53</v>
-      </c>
-      <c r="B35" s="16">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="12">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>44</v>
-      </c>
-      <c r="B36" s="16">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>26</v>
-      </c>
-      <c r="B37" s="16">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>1</v>
-      </c>
-      <c r="B38" s="13">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>89</v>
-      </c>
-      <c r="B39">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>86</v>
-      </c>
-      <c r="B40" s="13">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>55</v>
-      </c>
-      <c r="B41" s="16">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>45</v>
-      </c>
-      <c r="B42" s="16">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>5</v>
-      </c>
-      <c r="B43" s="16">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>36</v>
-      </c>
-      <c r="B44" s="4">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>5</v>
-      </c>
-      <c r="B45" s="16">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>16</v>
-      </c>
-      <c r="B46" s="13">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="15">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="10">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>30</v>
-      </c>
-      <c r="B48" s="16">
-        <v>34</v>
-      </c>
-      <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>44</v>
-      </c>
-      <c r="B49" s="16">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>75</v>
-      </c>
-      <c r="B50" s="16">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>51</v>
-      </c>
-      <c r="B51" s="13">
-        <v>43</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>45</v>
-      </c>
-      <c r="B52" s="16">
-        <v>79</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>4</v>
-      </c>
-      <c r="B54" s="16">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>36</v>
-      </c>
-      <c r="B55" s="16">
-        <v>84</v>
-      </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>48</v>
-      </c>
-      <c r="B56" s="16">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>86</v>
-      </c>
-      <c r="B57" s="16">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>33</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>31</v>
-      </c>
-      <c r="B59" s="16">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="10">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>16</v>
-      </c>
-      <c r="B60" s="16">
-        <v>34</v>
-      </c>
-      <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="15">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>71</v>
-      </c>
-      <c r="B61" s="16">
-        <v>32</v>
-      </c>
-      <c r="D61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>68</v>
-      </c>
-      <c r="B62" s="13">
-        <v>98</v>
-      </c>
-      <c r="D62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>85</v>
-      </c>
-      <c r="B63" s="16">
-        <v>29</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>45</v>
-      </c>
-      <c r="B64" s="16">
-        <v>88</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>55</v>
-      </c>
-      <c r="B65" s="13">
-        <v>43</v>
-      </c>
-      <c r="D65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>51</v>
-      </c>
-      <c r="B66" s="16">
-        <v>58</v>
-      </c>
-      <c r="D66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>89</v>
-      </c>
-      <c r="B67" s="13">
-        <v>40</v>
-      </c>
-      <c r="D67" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="15">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>7</v>
-      </c>
-      <c r="B68" s="4">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="13">
-        <v>37</v>
-      </c>
-      <c r="D69" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>4</v>
-      </c>
-      <c r="B70" s="13">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="12">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>95</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>72</v>
-      </c>
-      <c r="B72" s="13">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>22</v>
-      </c>
-      <c r="B73" s="4">
-        <v>54</v>
-      </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>31</v>
-      </c>
-      <c r="B74" s="13">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>16</v>
-      </c>
-      <c r="B75" s="13">
-        <v>56</v>
-      </c>
-      <c r="D75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>42</v>
-      </c>
-      <c r="B76" s="16">
-        <v>94</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
-        <v>68</v>
-      </c>
-      <c r="B77" s="16">
-        <v>57</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>26</v>
-      </c>
-      <c r="B78">
-        <v>62</v>
-      </c>
-      <c r="D78" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>16</v>
-      </c>
-      <c r="B79" s="13">
-        <v>50</v>
-      </c>
-      <c r="D79" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>51</v>
-      </c>
-      <c r="B80" s="13">
-        <v>56</v>
-      </c>
-      <c r="D80" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>71</v>
-      </c>
-      <c r="B81" s="13">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>1</v>
-      </c>
-      <c r="B82" s="4">
-        <v>24</v>
-      </c>
-      <c r="D82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>36</v>
-      </c>
-      <c r="B83" s="13">
-        <v>46</v>
-      </c>
-      <c r="D83" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>51</v>
-      </c>
-      <c r="B84" s="13">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>2</v>
-      </c>
-      <c r="B85" s="16">
-        <v>20</v>
-      </c>
-      <c r="D85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>42</v>
-      </c>
-      <c r="B86" s="16">
-        <v>34</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" s="12">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>25</v>
-      </c>
-      <c r="B87" s="13">
-        <v>59</v>
-      </c>
-      <c r="D87" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>93</v>
-      </c>
-      <c r="B88" s="4">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>17</v>
-      </c>
-      <c r="B89" s="16">
-        <v>47</v>
-      </c>
-      <c r="D89" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" s="15">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
-        <v>53</v>
-      </c>
-      <c r="B90" s="13">
-        <v>43</v>
-      </c>
-      <c r="D90" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
-        <v>30</v>
-      </c>
-      <c r="B91" s="16">
-        <v>88</v>
-      </c>
-      <c r="D91" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
-        <v>57</v>
-      </c>
-      <c r="B92" s="13">
-        <v>40</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
-        <v>78</v>
-      </c>
-      <c r="B93" s="13">
-        <v>98</v>
-      </c>
-      <c r="D93" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
-        <v>14</v>
-      </c>
-      <c r="B94" s="9">
-        <v>99</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
-        <v>32</v>
-      </c>
-      <c r="B95" s="13">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>94</v>
-      </c>
-      <c r="E95" s="10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
-        <v>78</v>
-      </c>
-      <c r="B96" s="9">
-        <v>99</v>
-      </c>
-      <c r="D96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E96" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
-        <v>29</v>
-      </c>
-      <c r="B97">
-        <v>62</v>
-      </c>
-      <c r="D97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
-        <v>47</v>
-      </c>
-      <c r="B98" s="9">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>97</v>
-      </c>
-      <c r="E98" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
-        <v>35</v>
-      </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99" s="15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
-        <v>20</v>
-      </c>
-      <c r="B100" s="9">
-        <v>44</v>
-      </c>
-      <c r="D100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="15">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
-        <v>29</v>
-      </c>
-      <c r="B101">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
-        <v>84</v>
-      </c>
-      <c r="B102">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
-        <v>94</v>
-      </c>
-      <c r="B103" s="9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
-        <v>32</v>
-      </c>
-      <c r="B104" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
-        <v>92</v>
-      </c>
-      <c r="B105" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
-        <v>21</v>
-      </c>
-      <c r="B106">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
-        <v>92</v>
-      </c>
-      <c r="B107" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
-        <v>23</v>
-      </c>
-      <c r="B108" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
-        <v>34</v>
-      </c>
-      <c r="B109" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
-        <v>20</v>
-      </c>
-      <c r="B110">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
-        <v>20</v>
-      </c>
-      <c r="B111" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
-        <v>84</v>
-      </c>
-      <c r="B112" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
-        <v>15</v>
-      </c>
-      <c r="B113">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
-        <v>84</v>
-      </c>
-      <c r="B114" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="17">
-        <v>23</v>
-      </c>
-      <c r="B115">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
-        <v>58</v>
-      </c>
-      <c r="B116" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
-        <v>84</v>
-      </c>
-      <c r="B117" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
-        <v>47</v>
-      </c>
-      <c r="B118" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
-        <v>20</v>
-      </c>
-      <c r="B119" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
-        <v>94</v>
-      </c>
-      <c r="B120" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="17">
-        <v>64</v>
-      </c>
-      <c r="B121">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="17">
-        <v>20</v>
-      </c>
-      <c r="B122" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="17">
-        <v>34</v>
-      </c>
-      <c r="B123" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
-        <v>61</v>
-      </c>
-      <c r="B124" s="13">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="17">
-        <v>21</v>
-      </c>
-      <c r="B125" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
-        <v>35</v>
-      </c>
-      <c r="B126" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="17">
-        <v>15</v>
-      </c>
-      <c r="B127" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
-        <v>32</v>
-      </c>
-      <c r="B128" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="17">
-        <v>32</v>
-      </c>
-      <c r="B129" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="17">
-        <v>77</v>
-      </c>
-      <c r="B130" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="17">
-        <v>61</v>
-      </c>
-      <c r="B131" s="13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
-        <v>77</v>
-      </c>
-      <c r="B132" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
-        <v>79</v>
-      </c>
-      <c r="B133" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
-        <v>79</v>
-      </c>
-      <c r="B134" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="17">
-        <v>69</v>
-      </c>
-      <c r="B135" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
-        <v>14</v>
-      </c>
-      <c r="B136" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="17">
-        <v>61</v>
-      </c>
-      <c r="B137" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="17">
-        <v>92</v>
-      </c>
-      <c r="B138" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
-        <v>94</v>
-      </c>
-      <c r="B139" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
-        <v>23</v>
-      </c>
-      <c r="B140" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="17">
-        <v>29</v>
-      </c>
-      <c r="B141" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="17">
-        <v>61</v>
-      </c>
-      <c r="B142">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="17">
-        <v>78</v>
-      </c>
-      <c r="B143" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="17">
-        <v>94</v>
-      </c>
-      <c r="B144" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
-        <v>79</v>
-      </c>
-      <c r="B145">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
-        <v>94</v>
-      </c>
-      <c r="B146" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="17">
-        <v>61</v>
-      </c>
-      <c r="B147" s="13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
-        <v>23</v>
-      </c>
-      <c r="B148" s="13">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="17">
-        <v>79</v>
-      </c>
-      <c r="B149" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
-        <v>92</v>
-      </c>
-      <c r="B150" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>60</v>
-      </c>
-      <c r="B151" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>63</v>
-      </c>
-      <c r="B152" s="16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
-        <v>43</v>
-      </c>
-      <c r="B153">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
-        <v>18</v>
-      </c>
-      <c r="B154" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="6">
-        <v>3</v>
-      </c>
-      <c r="B155" s="13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>73</v>
-      </c>
-      <c r="B156" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
-        <v>59</v>
-      </c>
-      <c r="B157" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
-        <v>82</v>
-      </c>
-      <c r="B158" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
-        <v>54</v>
-      </c>
-      <c r="B159" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
-        <v>50</v>
-      </c>
-      <c r="B160" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>73</v>
-      </c>
-      <c r="B161" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
-        <v>83</v>
-      </c>
-      <c r="B162" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
-        <v>59</v>
-      </c>
-      <c r="B163" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
-        <v>80</v>
-      </c>
-      <c r="B164" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="6">
-        <v>3</v>
-      </c>
-      <c r="B165" s="13">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
-        <v>83</v>
-      </c>
-      <c r="B166">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
-        <v>83</v>
-      </c>
-      <c r="B167" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>63</v>
-      </c>
-      <c r="B168" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="6">
-        <v>54</v>
-      </c>
-      <c r="B169" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
-        <v>9</v>
-      </c>
-      <c r="B170">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
-        <v>28</v>
-      </c>
-      <c r="B171" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="6">
-        <v>24</v>
-      </c>
-      <c r="B172" s="13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>62</v>
-      </c>
-      <c r="B173" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
-        <v>3</v>
-      </c>
-      <c r="B174">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="6">
-        <v>54</v>
-      </c>
-      <c r="B175" s="9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="6">
-        <v>0</v>
-      </c>
-      <c r="B176" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
-        <v>82</v>
-      </c>
-      <c r="B177" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
-        <v>13</v>
-      </c>
-      <c r="B178" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
-        <v>56</v>
-      </c>
-      <c r="B179" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
-        <v>0</v>
-      </c>
-      <c r="B180" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="14">
-        <v>56</v>
-      </c>
-      <c r="B181" s="16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>73</v>
-      </c>
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="14">
-        <v>66</v>
-      </c>
-      <c r="B183" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>87</v>
-      </c>
-      <c r="B184" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>91</v>
-      </c>
-      <c r="B185" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>65</v>
-      </c>
-      <c r="B186" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="14">
-        <v>82</v>
-      </c>
-      <c r="B187" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>41</v>
-      </c>
-      <c r="B188" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>10</v>
-      </c>
-      <c r="B189" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="14">
-        <v>43</v>
-      </c>
-      <c r="B190">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="14">
-        <v>66</v>
-      </c>
-      <c r="B191" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>41</v>
-      </c>
-      <c r="B192" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="14">
-        <v>67</v>
-      </c>
-      <c r="B193" s="9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="14">
-        <v>38</v>
-      </c>
-      <c r="B194">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>65</v>
-      </c>
-      <c r="B195" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>90</v>
-      </c>
-      <c r="B196" s="13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>97</v>
-      </c>
-      <c r="B197" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="14">
-        <v>46</v>
-      </c>
-      <c r="B198">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="6">
-        <v>3</v>
-      </c>
-      <c r="B199" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="14">
-        <v>8</v>
-      </c>
-      <c r="B200" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="14">
-        <v>9</v>
-      </c>
-      <c r="B201">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="14">
-        <v>80</v>
-      </c>
-      <c r="B202" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="6">
-        <v>24</v>
-      </c>
-      <c r="B203" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="6">
-        <v>54</v>
-      </c>
-      <c r="B204">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="6">
-        <v>0</v>
-      </c>
-      <c r="B205" s="9">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>39</v>
-      </c>
-      <c r="B206" s="16">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="14">
-        <v>66</v>
-      </c>
-      <c r="B207" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>91</v>
-      </c>
-      <c r="B208" s="13">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>33</v>
-      </c>
-      <c r="B209" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="14">
-        <v>38</v>
-      </c>
-      <c r="B210" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>41</v>
-      </c>
-      <c r="B211" s="16">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="6">
-        <v>3</v>
-      </c>
-      <c r="B212" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="6">
-        <v>18</v>
-      </c>
-      <c r="B213" s="13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="6">
-        <v>3</v>
-      </c>
-      <c r="B214">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>73</v>
-      </c>
-      <c r="B215" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="14">
-        <v>37</v>
-      </c>
-      <c r="B216" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="14">
-        <v>40</v>
-      </c>
-      <c r="B217" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>65</v>
-      </c>
-      <c r="B218" s="16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="6">
-        <v>3</v>
-      </c>
-      <c r="B219" s="13">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>73</v>
-      </c>
-      <c r="B220" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="14">
-        <v>9</v>
-      </c>
-      <c r="B221" s="16">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="6">
-        <v>0</v>
-      </c>
-      <c r="B222">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>39</v>
-      </c>
-      <c r="B223" s="16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="6">
-        <v>24</v>
-      </c>
-      <c r="B224" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="6">
-        <v>3</v>
-      </c>
-      <c r="B225" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="14">
-        <v>98</v>
-      </c>
-      <c r="B226" s="9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>96</v>
-      </c>
-      <c r="B227" s="16">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
-        <v>54</v>
-      </c>
-      <c r="B228" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="14">
-        <v>37</v>
-      </c>
-      <c r="B229" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="6">
-        <v>18</v>
-      </c>
-      <c r="B230" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="14">
-        <v>56</v>
-      </c>
-      <c r="B231">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="14">
-        <v>66</v>
-      </c>
-      <c r="B232" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>39</v>
-      </c>
-      <c r="B233" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="14">
-        <v>27</v>
-      </c>
-      <c r="B234" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>96</v>
-      </c>
-      <c r="B235" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="14">
-        <v>50</v>
-      </c>
-      <c r="B236" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="14">
-        <v>28</v>
-      </c>
-      <c r="B237" s="16">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="14">
-        <v>11</v>
-      </c>
-      <c r="B238" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="14">
-        <v>98</v>
-      </c>
-      <c r="B239" s="16">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="14">
-        <v>66</v>
-      </c>
-      <c r="B240">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
-        <v>18</v>
-      </c>
-      <c r="B241" s="13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="6">
-        <v>24</v>
-      </c>
-      <c r="B242" s="9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="14">
-        <v>13</v>
-      </c>
-      <c r="B243" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
-        <v>87</v>
-      </c>
-      <c r="B244" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="14">
-        <v>46</v>
-      </c>
-      <c r="B245">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="14">
-        <v>9</v>
-      </c>
-      <c r="B246" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>10</v>
-      </c>
-      <c r="B247" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="14">
-        <v>43</v>
-      </c>
-      <c r="B248" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="14">
-        <v>27</v>
-      </c>
-      <c r="B249" s="16">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
-        <v>0</v>
-      </c>
-      <c r="B250" s="9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
-        <v>0</v>
-      </c>
-      <c r="B251" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="6">
-        <v>24</v>
-      </c>
-      <c r="B252" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="6">
-        <v>18</v>
-      </c>
-      <c r="B253" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="14">
-        <v>43</v>
-      </c>
-      <c r="B254" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="14">
-        <v>67</v>
-      </c>
-      <c r="B255" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>41</v>
-      </c>
-      <c r="B256" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="14">
-        <v>38</v>
-      </c>
-      <c r="B257" s="16">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="14">
-        <v>38</v>
-      </c>
-      <c r="B258" s="16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>62</v>
-      </c>
-      <c r="B259" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="14">
-        <v>46</v>
-      </c>
-      <c r="B260" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
-        <v>18</v>
-      </c>
-      <c r="B261" s="9">
+      <c r="B261" s="5">
         <v>68</v>
       </c>
     </row>
@@ -3477,11 +3142,6 @@
       <c r="A476" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B261">
-    <sortState ref="A2:B261">
-      <sortCondition sortBy="cellColor" ref="A1:A261" dxfId="0"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3489,520 +3149,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:A100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:A100">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*red*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B211"/>
   <sheetViews>
@@ -5702,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B236"/>
   <sheetViews>
